--- a/ruben/juego_datos.xlsx
+++ b/ruben/juego_datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/ruben_garcia_atos_net/Documents/Documents/algebra/tp_taller_algebra/ruben/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a505146\OneDrive - Atos\Documents\algebra\tp_taller_algebra\ruben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D032E3-1EA1-4E8D-AED6-1902A42FDA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{01D032E3-1EA1-4E8D-AED6-1902A42FDA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{107DA2B7-408C-4340-BB04-7B71E943AA56}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{D18C0443-BF28-4AA9-AE05-979F9C647B64}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="521">
   <si>
     <t>usuarios</t>
   </si>
@@ -557,1051 +557,1042 @@
     <t>relaciones</t>
   </si>
   <si>
-    <t>[(5518,23919)</t>
-  </si>
-  <si>
-    <t>(23919,44819)</t>
-  </si>
-  <si>
-    <t>(5518,44819)</t>
-  </si>
-  <si>
-    <t>(41718,44713)</t>
-  </si>
-  <si>
-    <t>(44713,18719)</t>
-  </si>
-  <si>
-    <t>(41718,18719)</t>
-  </si>
-  <si>
-    <t>(20217,24717)</t>
-  </si>
-  <si>
-    <t>(24717,36517)</t>
-  </si>
-  <si>
-    <t>(20217,36517)</t>
-  </si>
-  <si>
-    <t>(48319,5019)</t>
-  </si>
-  <si>
-    <t>(5019,45819)</t>
-  </si>
-  <si>
-    <t>(48319,45819)</t>
-  </si>
-  <si>
-    <t>(41719,35919)</t>
-  </si>
-  <si>
-    <t>(35919,26419)</t>
-  </si>
-  <si>
-    <t>(41719,26419)</t>
-  </si>
-  <si>
-    <t>(36819,55516)</t>
-  </si>
-  <si>
-    <t>(55516,5919)</t>
-  </si>
-  <si>
-    <t>(36819,5919)</t>
-  </si>
-  <si>
-    <t>(30019,13919)</t>
-  </si>
-  <si>
-    <t>(13919,37719)</t>
-  </si>
-  <si>
-    <t>(30019,37719)</t>
-  </si>
-  <si>
-    <t>(43635,36619)</t>
-  </si>
-  <si>
-    <t>(36619,21719)</t>
-  </si>
-  <si>
-    <t>(43635,21719)</t>
-  </si>
-  <si>
-    <t>(64407,44919)</t>
-  </si>
-  <si>
-    <t>(44919,47119)</t>
-  </si>
-  <si>
-    <t>(64407,47119)</t>
-  </si>
-  <si>
-    <t>(5719,16919)</t>
-  </si>
-  <si>
-    <t>(16919,1972)</t>
-  </si>
-  <si>
-    <t>(5719,1972)</t>
-  </si>
-  <si>
-    <t>(34619,57619)</t>
-  </si>
-  <si>
-    <t>(57619,25719)</t>
-  </si>
-  <si>
-    <t>(34619,25719)</t>
-  </si>
-  <si>
-    <t>(12319,27219)</t>
-  </si>
-  <si>
-    <t>(27219,34419)</t>
-  </si>
-  <si>
-    <t>(12319,34419)</t>
-  </si>
-  <si>
-    <t>(50519,45719)</t>
-  </si>
-  <si>
-    <t>(45719,22519)</t>
-  </si>
-  <si>
-    <t>(50519,22519)</t>
-  </si>
-  <si>
-    <t>(6119,32519)</t>
-  </si>
-  <si>
-    <t>(32519,48719)</t>
-  </si>
-  <si>
-    <t>(6119,48719)</t>
-  </si>
-  <si>
-    <t>(22919,14819)</t>
-  </si>
-  <si>
-    <t>(14819,67618)</t>
-  </si>
-  <si>
-    <t>(22919,67618)</t>
-  </si>
-  <si>
-    <t>(10819,28419)</t>
-  </si>
-  <si>
-    <t>(28419,47419)</t>
-  </si>
-  <si>
-    <t>(10819,47419)</t>
-  </si>
-  <si>
-    <t>(14119,10219)</t>
-  </si>
-  <si>
-    <t>(10219,42719)</t>
-  </si>
-  <si>
-    <t>(14119,42719)</t>
-  </si>
-  <si>
-    <t>(22219,13619)</t>
-  </si>
-  <si>
-    <t>(13619,42419)</t>
-  </si>
-  <si>
-    <t>(22219,42419)</t>
-  </si>
-  <si>
-    <t>(32319,24519)</t>
-  </si>
-  <si>
-    <t>(24519,46919)</t>
-  </si>
-  <si>
-    <t>(32319,46919)</t>
-  </si>
-  <si>
-    <t>(10719,44419)</t>
-  </si>
-  <si>
-    <t>(44419,22419)</t>
-  </si>
-  <si>
-    <t>(10719,22419)</t>
-  </si>
-  <si>
-    <t>(30019,79418)</t>
-  </si>
-  <si>
-    <t>(79418,12219)</t>
-  </si>
-  <si>
-    <t>(30019,12219)</t>
-  </si>
-  <si>
-    <t>(30419,15919)</t>
-  </si>
-  <si>
-    <t>(15919,22119)</t>
-  </si>
-  <si>
-    <t>(30419,22119)</t>
-  </si>
-  <si>
-    <t>(26319,24819)</t>
-  </si>
-  <si>
-    <t>(24819,22914)</t>
-  </si>
-  <si>
-    <t>(26319,22914)</t>
-  </si>
-  <si>
-    <t>(47519,31019)</t>
-  </si>
-  <si>
-    <t>(31019,26119)</t>
-  </si>
-  <si>
-    <t>(47519,26119)</t>
-  </si>
-  <si>
-    <t>(74118,10919)</t>
-  </si>
-  <si>
-    <t>(10919,9519)</t>
-  </si>
-  <si>
-    <t>(74118,9519)</t>
-  </si>
-  <si>
-    <t>(82218,12919)</t>
-  </si>
-  <si>
-    <t>(12919,5118)</t>
-  </si>
-  <si>
-    <t>(82218,5118)</t>
-  </si>
-  <si>
-    <t>(20919,35519)</t>
-  </si>
-  <si>
-    <t>(35519,6219)</t>
-  </si>
-  <si>
-    <t>(20919,6219)</t>
-  </si>
-  <si>
-    <t>(32919,5619)</t>
-  </si>
-  <si>
-    <t>(5619,80917)</t>
-  </si>
-  <si>
-    <t>(32919,80917)</t>
-  </si>
-  <si>
-    <t>(55019,51719)</t>
-  </si>
-  <si>
-    <t>(51719,49119)</t>
-  </si>
-  <si>
-    <t>(55019,49119)</t>
-  </si>
-  <si>
-    <t>(57718,51019)</t>
-  </si>
-  <si>
-    <t>(51019,7819)</t>
-  </si>
-  <si>
-    <t>(57718,7819)</t>
-  </si>
-  <si>
-    <t>(41019,3719)</t>
-  </si>
-  <si>
-    <t>(3719,23019)</t>
-  </si>
-  <si>
-    <t>(41019,23019)</t>
-  </si>
-  <si>
-    <t>(56018,26619)</t>
-  </si>
-  <si>
-    <t>(26619,13019)</t>
-  </si>
-  <si>
-    <t>(56018,13019)</t>
-  </si>
-  <si>
-    <t>(25919,51619)</t>
-  </si>
-  <si>
-    <t>(51619,42224643)</t>
-  </si>
-  <si>
-    <t>(25919,42224643)</t>
-  </si>
-  <si>
-    <t>(28219,14519)</t>
-  </si>
-  <si>
-    <t>(14519,29919)</t>
-  </si>
-  <si>
-    <t>(28219,29919)</t>
-  </si>
-  <si>
-    <t>(35117,36119)</t>
-  </si>
-  <si>
-    <t>(36119,6619)</t>
-  </si>
-  <si>
-    <t>(35117,6619)</t>
-  </si>
-  <si>
-    <t>(41419,31419)</t>
-  </si>
-  <si>
-    <t>(31419,22619)</t>
-  </si>
-  <si>
-    <t>(41419,22619)</t>
-  </si>
-  <si>
-    <t>(2919,23117)</t>
-  </si>
-  <si>
-    <t>(23117,19019)</t>
-  </si>
-  <si>
-    <t>(2919,19019)</t>
-  </si>
-  <si>
-    <t>(20319,5819)</t>
-  </si>
-  <si>
-    <t>(5819,45119)</t>
-  </si>
-  <si>
-    <t>(20319,45119)</t>
-  </si>
-  <si>
-    <t>(32719,17219)</t>
-  </si>
-  <si>
-    <t>(17219,12019)</t>
-  </si>
-  <si>
-    <t>(32719,12019)</t>
-  </si>
-  <si>
-    <t>(35719,37419)</t>
-  </si>
-  <si>
-    <t>(37419,15219)</t>
-  </si>
-  <si>
-    <t>(35719,15219)</t>
-  </si>
-  <si>
-    <t>(37719,20119)</t>
-  </si>
-  <si>
-    <t>(13919,20119)</t>
-  </si>
-  <si>
-    <t>(33419,29119)</t>
-  </si>
-  <si>
-    <t>(29119,34819)</t>
-  </si>
-  <si>
-    <t>(33419,34819)</t>
-  </si>
-  <si>
-    <t>(44418,51319)</t>
-  </si>
-  <si>
-    <t>(51319,55319)</t>
-  </si>
-  <si>
-    <t>(44418,55319)</t>
-  </si>
-  <si>
-    <t>(43319,5319)</t>
-  </si>
-  <si>
-    <t>(5319,27019)</t>
-  </si>
-  <si>
-    <t>(43319,27019)</t>
-  </si>
-  <si>
-    <t>(49819,35219)</t>
-  </si>
-  <si>
-    <t>(35219,19319)</t>
-  </si>
-  <si>
-    <t>(49819,19319)</t>
-  </si>
-  <si>
-    <t>(8419,48919)</t>
-  </si>
-  <si>
-    <t>(48919,10119)</t>
-  </si>
-  <si>
-    <t>(8419,10119)</t>
-  </si>
-  <si>
-    <t>(9218,92328555)</t>
-  </si>
-  <si>
-    <t>(92328555,8319)</t>
-  </si>
-  <si>
-    <t>(9218,8319)</t>
-  </si>
-  <si>
-    <t>(9019,52918)</t>
-  </si>
-  <si>
-    <t>(52918,28719)</t>
-  </si>
-  <si>
-    <t>(9019,28719)</t>
-  </si>
-  <si>
-    <t>(9119,47719)</t>
-  </si>
-  <si>
-    <t>(47719,18319)</t>
-  </si>
-  <si>
-    <t>(9119,18319)</t>
-  </si>
-  <si>
-    <t>(9719,56419)</t>
-  </si>
-  <si>
-    <t>(56419,43919)</t>
-  </si>
-  <si>
-    <t>(9719,43919)</t>
-  </si>
-  <si>
-    <t>(50219,40519)</t>
-  </si>
-  <si>
-    <t>(40519,46019)</t>
-  </si>
-  <si>
-    <t>(50219,46019)</t>
-  </si>
-  <si>
-    <t>(14619,57119)</t>
-  </si>
-  <si>
-    <t>(57119,11319)</t>
-  </si>
-  <si>
-    <t>(14619,11319)</t>
-  </si>
-  <si>
-    <t>(26519,11119)</t>
-  </si>
-  <si>
-    <t>(11119,40419)</t>
-  </si>
-  <si>
-    <t>(26519,40419)</t>
-  </si>
-  <si>
-    <t>(55419,4812)</t>
-  </si>
-  <si>
-    <t>(4812,9009)</t>
-  </si>
-  <si>
-    <t>(55419,9009)</t>
-  </si>
-  <si>
-    <t>(52419,45919)</t>
-  </si>
-  <si>
-    <t>(45919,46419)</t>
-  </si>
-  <si>
-    <t>(52419,46419)</t>
-  </si>
-  <si>
-    <t>(29319,94805)</t>
-  </si>
-  <si>
-    <t>(94805,82011)</t>
-  </si>
-  <si>
-    <t>(29319,82011)</t>
-  </si>
-  <si>
-    <t>(36919,62511)</t>
-  </si>
-  <si>
-    <t>(62511,52818)</t>
-  </si>
-  <si>
-    <t>(36919,52818)</t>
-  </si>
-  <si>
-    <t>(23319,38219)</t>
-  </si>
-  <si>
-    <t>(38219,23119)</t>
-  </si>
-  <si>
-    <t>(23319,23119)</t>
-  </si>
-  <si>
-    <t>(25819,32119)]</t>
-  </si>
-  <si>
-    <t>[(5518,'texto de prueba',(23919,41718,44713,18719,20217,24717,36517,48319))</t>
-  </si>
-  <si>
-    <t>(23919,'texto de prueba',(5019,41719,35919,26419,36819,55516,5919,30019))</t>
-  </si>
-  <si>
-    <t>(44819,'texto de prueba',(44819,44713,18719,20217,24717,36517,48319,5019))</t>
-  </si>
-  <si>
-    <t>(41718,'texto de prueba',(44713,20217,24717,36517,48319,5019,45819,41719))</t>
-  </si>
-  <si>
-    <t>(44713,'texto de prueba',(18719,24717,36517,48319,5019,45819,41719,35919))</t>
-  </si>
-  <si>
-    <t>(18719,'texto de prueba',(20217,36517,48319,5019,45819,41719,35919,26419))</t>
-  </si>
-  <si>
-    <t>(20217,'texto de prueba',(24717,48319,5019,45819,41719,35919,26419,36819))</t>
-  </si>
-  <si>
-    <t>(24717,'texto de prueba',(36517,5019,45819,41719,35919,26419,36819,55516))</t>
-  </si>
-  <si>
-    <t>(36517,'texto de prueba',(48319,45819,41719,35919,26419,36819,55516,5919))</t>
-  </si>
-  <si>
-    <t>(48319,'texto de prueba',(5019,41719,35919,26419,36819,55516,5919,30019))</t>
-  </si>
-  <si>
-    <t>(5019,'texto de prueba',(45819,35919,26419,36819,55516,5919,30019,13919))</t>
-  </si>
-  <si>
-    <t>(45819,'texto de prueba',(41719,26419,36819,55516,5919,30019,13919,37719))</t>
-  </si>
-  <si>
-    <t>(41719,'texto de prueba',(35919,36819,55516,5919,30019,13919,37719,43635))</t>
-  </si>
-  <si>
-    <t>(35919,'texto de prueba',(26419,55516,5919,30019,13919,37719,43635,36619))</t>
-  </si>
-  <si>
-    <t>(26419,'texto de prueba',(36819,5919,30019,13919,37719,43635,36619,21719))</t>
-  </si>
-  <si>
-    <t>(36819,'texto de prueba',(55516,30019,13919,37719,43635,36619,21719,64407))</t>
-  </si>
-  <si>
-    <t>(55516,'texto de prueba',(5919,13919,37719,43635,36619,21719,64407,44919))</t>
-  </si>
-  <si>
-    <t>(5919,'texto de prueba',(30019,37719,43635,36619,21719,64407,44919,47119))</t>
-  </si>
-  <si>
-    <t>(30019,'texto de prueba',(13919,43635,36619,21719,64407,44919,47119,5719))</t>
-  </si>
-  <si>
-    <t>(13919,'texto de prueba',(37719,36619,21719,64407,44919,47119,5719,16919))</t>
-  </si>
-  <si>
-    <t>(37719,'texto de prueba',(43635,21719,64407,44919,47119,5719,16919,34619))</t>
-  </si>
-  <si>
-    <t>(43635,'texto de prueba',(36619,64407,44919,47119,5719,16919,34619,57619))</t>
-  </si>
-  <si>
-    <t>(36619,'texto de prueba',(21719,44919,47119,5719,16919,34619,57619,25719))</t>
-  </si>
-  <si>
-    <t>(21719,'texto de prueba',(64407,47119,5719,16919,34619,57619,25719,12319))</t>
-  </si>
-  <si>
-    <t>(64407,'texto de prueba',(44919,5719,16919,34619,57619,25719,12319,27219))</t>
-  </si>
-  <si>
-    <t>(44919,'texto de prueba',(47119,16919,34619,57619,25719,12319,27219,34419))</t>
-  </si>
-  <si>
-    <t>(47119,'texto de prueba',(5719,34619,57619,25719,12319,27219,34419,50519))</t>
-  </si>
-  <si>
-    <t>(5719,'texto de prueba',(16919,57619,25719,12319,27219,34419,50519,45719))</t>
-  </si>
-  <si>
-    <t>(16919,'texto de prueba',(34619,25719,12319,27219,34419,50519,45719,22519))</t>
-  </si>
-  <si>
-    <t>(34619,'texto de prueba',(57619,12319,27219,34419,50519,45719,22519,6119))</t>
-  </si>
-  <si>
-    <t>(57619,'texto de prueba',(25719,27219,34419,50519,45719,22519,6119,32519))</t>
-  </si>
-  <si>
-    <t>(25719,'texto de prueba',(12319,34419,50519,45719,22519,6119,32519,48719))</t>
-  </si>
-  <si>
-    <t>(12319,'texto de prueba',(27219,50519,45719,22519,6119,32519,48719,22919))</t>
-  </si>
-  <si>
-    <t>(27219,'texto de prueba',(34419,45719,22519,6119,32519,48719,22919,14819))</t>
-  </si>
-  <si>
-    <t>(34419,'texto de prueba',(50519,22519,6119,32519,48719,22919,14819,67618))</t>
-  </si>
-  <si>
-    <t>(50519,'texto de prueba',(45719,6119,32519,48719,22919,14819,67618,10819))</t>
-  </si>
-  <si>
-    <t>(45719,'texto de prueba',(22519,32519,48719,22919,14819,67618,10819,28419))</t>
-  </si>
-  <si>
-    <t>(22519,'texto de prueba',(6119,48719,22919,14819,67618,10819,28419,47419))</t>
-  </si>
-  <si>
-    <t>(6119,'texto de prueba',(32519,22919,14819,67618,10819,28419,47419,14119))</t>
-  </si>
-  <si>
-    <t>(32519,'texto de prueba',(48719,14819,67618,10819,28419,47419,14119,10219))</t>
-  </si>
-  <si>
-    <t>(48719,'texto de prueba',(22919,67618,10819,28419,47419,14119,10219,42719))</t>
-  </si>
-  <si>
-    <t>(22919,'texto de prueba',(14819,10819,28419,47419,14119,10219,42719,22219))</t>
-  </si>
-  <si>
-    <t>(14819,'texto de prueba',(67618,28419,47419,14119,10219,42719,22219,13619))</t>
-  </si>
-  <si>
-    <t>(67618,'texto de prueba',(10819,47419,14119,10219,42719,22219,13619,42419))</t>
-  </si>
-  <si>
-    <t>(10819,'texto de prueba',(28419,14119,10219,42719,22219,13619,42419,32319))</t>
-  </si>
-  <si>
-    <t>(28419,'texto de prueba',(47419,10219,42719,22219,13619,42419,32319,24519))</t>
-  </si>
-  <si>
-    <t>(47419,'texto de prueba',(14119,42719,22219,13619,42419,32319,24519,46919))</t>
-  </si>
-  <si>
-    <t>(14119,'texto de prueba',(10219,22219,13619,42419,32319,24519,46919,10719))</t>
-  </si>
-  <si>
-    <t>(10219,'texto de prueba',(42719,13619,42419,32319,24519,46919,10719,44419))</t>
-  </si>
-  <si>
-    <t>(42719,'texto de prueba',(22219,42419,32319,24519,46919,10719,44419,22419))</t>
-  </si>
-  <si>
-    <t>(22219,'texto de prueba',(13619,32319,24519,46919,10719,44419,22419,30019))</t>
-  </si>
-  <si>
-    <t>(13619,'texto de prueba',(42419,24519,46919,10719,44419,22419,30019,79418))</t>
-  </si>
-  <si>
-    <t>(42419,'texto de prueba',(32319,46919,10719,44419,22419,30019,79418,12219))</t>
-  </si>
-  <si>
-    <t>(32319,'texto de prueba',(24519,10719,44419,22419,30019,79418,12219,30419))</t>
-  </si>
-  <si>
-    <t>(24519,'texto de prueba',(46919,44419,22419,30019,79418,12219,30419,15919))</t>
-  </si>
-  <si>
-    <t>(46919,'texto de prueba',(10719,22419,30019,79418,12219,30419,15919,22119))</t>
-  </si>
-  <si>
-    <t>(10719,'texto de prueba',(44419,30019,79418,12219,30419,15919,22119,26319))</t>
-  </si>
-  <si>
-    <t>(44419,'texto de prueba',(22419,79418,12219,30419,15919,22119,26319,24819))</t>
-  </si>
-  <si>
-    <t>(22419,'texto de prueba',(30019,12219,30419,15919,22119,26319,24819,22914))</t>
-  </si>
-  <si>
-    <t>(30019,'texto de prueba',(79418,30419,15919,22119,26319,24819,22914,47519))</t>
-  </si>
-  <si>
-    <t>(79418,'texto de prueba',(12219,15919,22119,26319,24819,22914,47519,31019))</t>
-  </si>
-  <si>
-    <t>(12219,'texto de prueba',(30419,22119,26319,24819,22914,47519,31019,26119))</t>
-  </si>
-  <si>
-    <t>(30419,'texto de prueba',(15919,26319,24819,22914,47519,31019,26119,74118))</t>
-  </si>
-  <si>
-    <t>(15919,'texto de prueba',(22119,24819,22914,47519,31019,26119,74118,10919))</t>
-  </si>
-  <si>
-    <t>(22119,'texto de prueba',(26319,22914,47519,31019,26119,74118,10919,9519))</t>
-  </si>
-  <si>
-    <t>(26319,'texto de prueba',(24819,47519,31019,26119,74118,10919,9519,82218))</t>
-  </si>
-  <si>
-    <t>(24819,'texto de prueba',(22914,31019,26119,74118,10919,9519,82218,12919))</t>
-  </si>
-  <si>
-    <t>(22914,'texto de prueba',(47519,26119,74118,10919,9519,82218,12919,5118))</t>
-  </si>
-  <si>
-    <t>(47519,'texto de prueba',(31019,74118,10919,9519,82218,12919,5118,20919))</t>
-  </si>
-  <si>
-    <t>(31019,'texto de prueba',(26119,10919,9519,82218,12919,5118,20919,35519))</t>
-  </si>
-  <si>
-    <t>(26119,'texto de prueba',(74118,9519,82218,12919,5118,20919,35519,6219))</t>
-  </si>
-  <si>
-    <t>(74118,'texto de prueba',(10919,82218,12919,5118,20919,35519,6219,32919))</t>
-  </si>
-  <si>
-    <t>(10919,'texto de prueba',(9519,12919,5118,20919,35519,6219,32919,5619))</t>
-  </si>
-  <si>
-    <t>(9519,'texto de prueba',(82218,5118,20919,35519,6219,32919,5619,80917))</t>
-  </si>
-  <si>
-    <t>(82218,'texto de prueba',(12919,20919,35519,6219,32919,5619,80917,55019))</t>
-  </si>
-  <si>
-    <t>(12919,'texto de prueba',(5118,35519,6219,32919,5619,80917,55019,51719))</t>
-  </si>
-  <si>
-    <t>(5118,'texto de prueba',(20919,6219,32919,5619,80917,55019,51719,49119))</t>
-  </si>
-  <si>
-    <t>(20919,'texto de prueba',(35519,32919,5619,80917,55019,51719,49119,57718))</t>
-  </si>
-  <si>
-    <t>(35519,'texto de prueba',(6219,5619,80917,55019,51719,49119,57718,51019))</t>
-  </si>
-  <si>
-    <t>(6219,'texto de prueba',(32919,80917,55019,51719,49119,57718,51019,7819))</t>
-  </si>
-  <si>
-    <t>(32919,'texto de prueba',(5619,55019,51719,49119,57718,51019,7819,41019))</t>
-  </si>
-  <si>
-    <t>(5619,'texto de prueba',(80917,51719,49119,57718,51019,7819,41019,3719))</t>
-  </si>
-  <si>
-    <t>(80917,'texto de prueba',(55019,49119,57718,51019,7819,41019,3719,23019))</t>
-  </si>
-  <si>
-    <t>(55019,'texto de prueba',(51719,57718,51019,7819,41019,3719,23019,56018))</t>
-  </si>
-  <si>
-    <t>(51719,'texto de prueba',(49119,51019,7819,41019,3719,23019,56018,26619))</t>
-  </si>
-  <si>
-    <t>(49119,'texto de prueba',(57718,7819,41019,3719,23019,56018,26619,13019))</t>
-  </si>
-  <si>
-    <t>(57718,'texto de prueba',(51019,41019,3719,23019,56018,26619,13019,25919))</t>
-  </si>
-  <si>
-    <t>(51019,'texto de prueba',(7819,3719,23019,56018,26619,13019,25919,51619))</t>
-  </si>
-  <si>
-    <t>(7819,'texto de prueba',(41019,23019,56018,26619,13019,25919,51619,42224643))</t>
-  </si>
-  <si>
-    <t>(41019,'texto de prueba',(3719,56018,26619,13019,25919,51619,42224643,28219))</t>
-  </si>
-  <si>
-    <t>(3719,'texto de prueba',(23019,26619,13019,25919,51619,42224643,28219,14519))</t>
-  </si>
-  <si>
-    <t>(23019,'texto de prueba',(56018,13019,25919,51619,42224643,28219,14519,29919))</t>
-  </si>
-  <si>
-    <t>(56018,'texto de prueba',(26619,25919,51619,42224643,28219,14519,29919,35117))</t>
-  </si>
-  <si>
-    <t>(26619,'texto de prueba',(13019,51619,42224643,28219,14519,29919,35117,36119))</t>
-  </si>
-  <si>
-    <t>(13019,'texto de prueba',(25919,42224643,28219,14519,29919,35117,36119,6619))</t>
-  </si>
-  <si>
-    <t>(25919,'texto de prueba',(51619,28219,14519,29919,35117,36119,6619,41419))</t>
-  </si>
-  <si>
-    <t>(51619,'texto de prueba',(42224643,14519,29919,35117,36119,6619,41419,31419))</t>
-  </si>
-  <si>
-    <t>(42224643,'texto de prueba',(28219,29919,35117,36119,6619,41419,31419,22619))</t>
-  </si>
-  <si>
-    <t>(28219,'texto de prueba',(14519,35117,36119,6619,41419,31419,22619,2919))</t>
-  </si>
-  <si>
-    <t>(14519,'texto de prueba',(29919,36119,6619,41419,31419,22619,2919,23117))</t>
-  </si>
-  <si>
-    <t>(29919,'texto de prueba',(35117,6619,41419,31419,22619,2919,23117,19019))</t>
-  </si>
-  <si>
-    <t>(35117,'texto de prueba',(36119,41419,31419,22619,2919,23117,19019,20319))</t>
-  </si>
-  <si>
-    <t>(36119,'texto de prueba',(6619,31419,22619,2919,23117,19019,20319,5819))</t>
-  </si>
-  <si>
-    <t>(6619,'texto de prueba',(41419,22619,2919,23117,19019,20319,5819,45119))</t>
-  </si>
-  <si>
-    <t>(41419,'texto de prueba',(31419,2919,23117,19019,20319,5819,45119,32719))</t>
-  </si>
-  <si>
-    <t>(31419,'texto de prueba',(22619,23117,19019,20319,5819,45119,32719,17219))</t>
-  </si>
-  <si>
-    <t>(22619,'texto de prueba',(2919,19019,20319,5819,45119,32719,17219,12019))</t>
-  </si>
-  <si>
-    <t>(2919,'texto de prueba',(23117,20319,5819,45119,32719,17219,12019,35719))</t>
-  </si>
-  <si>
-    <t>(23117,'texto de prueba',(19019,5819,45119,32719,17219,12019,35719,37419))</t>
-  </si>
-  <si>
-    <t>(19019,'texto de prueba',(20319,45119,32719,17219,12019,35719,37419,15219))</t>
-  </si>
-  <si>
-    <t>(20319,'texto de prueba',(5819,32719,17219,12019,35719,37419,15219,13919))</t>
-  </si>
-  <si>
-    <t>(5819,'texto de prueba',(45119,17219,12019,35719,37419,15219,13919,37719))</t>
-  </si>
-  <si>
-    <t>(45119,'texto de prueba',(32719,12019,35719,37419,15219,13919,37719,20119))</t>
-  </si>
-  <si>
-    <t>(32719,'texto de prueba',(17219,35719,37419,15219,13919,37719,20119,33419))</t>
-  </si>
-  <si>
-    <t>(17219,'texto de prueba',(12019,37419,15219,13919,37719,20119,33419,29119))</t>
-  </si>
-  <si>
-    <t>(12019,'texto de prueba',(35719,15219,13919,37719,20119,33419,29119,34819))</t>
-  </si>
-  <si>
-    <t>(35719,'texto de prueba',(37419,13919,37719,20119,33419,29119,34819,44418))</t>
-  </si>
-  <si>
-    <t>(37419,'texto de prueba',(15219,37719,20119,33419,29119,34819,44418,51319))</t>
-  </si>
-  <si>
-    <t>(15219,'texto de prueba',(13919,20119,33419,29119,34819,44418,51319,55319))</t>
-  </si>
-  <si>
-    <t>(13919,'texto de prueba',(37719,33419,29119,34819,44418,51319,55319,43319))</t>
-  </si>
-  <si>
-    <t>(37719,'texto de prueba',(20119,29119,34819,44418,51319,55319,43319,5319))</t>
-  </si>
-  <si>
-    <t>(20119,'texto de prueba',(33419,34819,44418,51319,55319,43319,5319,27019))</t>
-  </si>
-  <si>
-    <t>(33419,'texto de prueba',(29119,44418,51319,55319,43319,5319,27019,49819))</t>
-  </si>
-  <si>
-    <t>(29119,'texto de prueba',(34819,51319,55319,43319,5319,27019,49819,35219))</t>
-  </si>
-  <si>
-    <t>(34819,'texto de prueba',(44418,55319,43319,5319,27019,49819,35219,19319))</t>
-  </si>
-  <si>
-    <t>(44418,'texto de prueba',(51319,43319,5319,27019,49819,35219,19319,8419))</t>
-  </si>
-  <si>
-    <t>(51319,'texto de prueba',(55319,5319,27019,49819,35219,19319,8419,48919))</t>
-  </si>
-  <si>
-    <t>(55319,'texto de prueba',(43319,27019,49819,35219,19319,8419,48919,10119))</t>
-  </si>
-  <si>
-    <t>(43319,'texto de prueba',(5319,49819,35219,19319,8419,48919,10119,9218))</t>
-  </si>
-  <si>
-    <t>(5319,'texto de prueba',(27019,35219,19319,8419,48919,10119,9218,92328555))</t>
-  </si>
-  <si>
-    <t>(27019,'texto de prueba',(49819,19319,8419,48919,10119,9218,92328555,8319))</t>
-  </si>
-  <si>
-    <t>(49819,'texto de prueba',(35219,8419,48919,10119,9218,92328555,8319,9019))</t>
-  </si>
-  <si>
-    <t>(35219,'texto de prueba',(19319,48919,10119,9218,92328555,8319,9019,52918))</t>
-  </si>
-  <si>
-    <t>(19319,'texto de prueba',(8419,10119,9218,92328555,8319,9019,52918,28719))</t>
-  </si>
-  <si>
-    <t>(8419,'texto de prueba',(48919,9218,92328555,8319,9019,52918,28719,9119))</t>
-  </si>
-  <si>
-    <t>(48919,'texto de prueba',(10119,92328555,8319,9019,52918,28719,9119,47719))</t>
-  </si>
-  <si>
-    <t>(10119,'texto de prueba',(9218,8319,9019,52918,28719,9119,47719,18319))</t>
-  </si>
-  <si>
-    <t>(9218,'texto de prueba',(92328555,9019,52918,28719,9119,47719,18319,9719))</t>
-  </si>
-  <si>
-    <t>(92328555,'texto de prueba',(8319,52918,28719,9119,47719,18319,9719,56419))</t>
-  </si>
-  <si>
-    <t>(8319,'texto de prueba',(9019,28719,9119,47719,18319,9719,56419,43919))</t>
-  </si>
-  <si>
-    <t>(9019,'texto de prueba',(52918,9119,47719,18319,9719,56419,43919,50219))</t>
-  </si>
-  <si>
-    <t>(52918,'texto de prueba',(28719,47719,18319,9719,56419,43919,50219,40519))</t>
-  </si>
-  <si>
-    <t>(28719,'texto de prueba',(9119,18319,9719,56419,43919,50219,40519,46019))</t>
-  </si>
-  <si>
-    <t>(9119,'texto de prueba',(47719,9719,56419,43919,50219,40519,46019,14619))</t>
-  </si>
-  <si>
-    <t>(47719,'texto de prueba',(18319,56419,43919,50219,40519,46019,14619,57119))</t>
-  </si>
-  <si>
-    <t>(18319,'texto de prueba',(9719,43919,50219,40519,46019,14619,57119,11319))</t>
-  </si>
-  <si>
-    <t>(9719,'texto de prueba',(56419,50219,40519,46019,14619,57119,11319,26519))</t>
-  </si>
-  <si>
-    <t>(56419,'texto de prueba',(43919,40519,46019,14619,57119,11319,26519,11119))</t>
-  </si>
-  <si>
-    <t>(43919,'texto de prueba',(50219,46019,14619,57119,11319,26519,11119,40419))</t>
-  </si>
-  <si>
-    <t>(50219,'texto de prueba',(40519,14619,57119,11319,26519,11119,40419,55419))</t>
-  </si>
-  <si>
-    <t>(40519,'texto de prueba',(46019,57119,11319,26519,11119,40419,55419,4812))</t>
-  </si>
-  <si>
-    <t>(46019,'texto de prueba',(14619,11319,26519,11119,40419,55419,4812,9009))</t>
-  </si>
-  <si>
-    <t>(14619,'texto de prueba',(57119,26519,11119,40419,55419,4812,9009,52419))</t>
-  </si>
-  <si>
-    <t>(57119,'texto de prueba',(11319,11119,40419,55419,4812,9009,52419,45919))</t>
-  </si>
-  <si>
-    <t>(11319,'texto de prueba',(26519,40419,55419,4812,9009,52419,45919,46419))</t>
-  </si>
-  <si>
-    <t>(26519,'texto de prueba',(11119,55419,4812,9009,52419,45919,46419,29319))</t>
-  </si>
-  <si>
-    <t>(11119,'texto de prueba',(40419,4812,9009,52419,45919,46419,29319,94805))</t>
-  </si>
-  <si>
-    <t>(40419,'texto de prueba',(55419,9009,52419,45919,46419,29319,94805,82011))</t>
-  </si>
-  <si>
-    <t>(55419,'texto de prueba',(4812,52419,45919,46419,29319,94805,82011,36919))</t>
-  </si>
-  <si>
-    <t>(4812,'texto de prueba',(9009,45919,46419,29319,94805,82011,36919,62511))</t>
-  </si>
-  <si>
-    <t>(9009,'texto de prueba',(52419,46419,29319,94805,82011,36919,62511,52818))</t>
-  </si>
-  <si>
-    <t>(52419,'texto de prueba',(45919,29319,94805,82011,36919,62511,52818,23319))</t>
-  </si>
-  <si>
-    <t>(45919,'texto de prueba',(46419,94805,82011,36919,62511,52818,23319,38219))</t>
-  </si>
-  <si>
-    <t>(46419,'texto de prueba',(29319,82011,36919,62511,52818,23319,38219,23119))</t>
-  </si>
-  <si>
-    <t>(29319,'texto de prueba',(94805,36919,62511,52818,23319,38219,23119,25819))</t>
-  </si>
-  <si>
-    <t>(94805,'texto de prueba',(82011,62511,52818,23319,38219,23119,25819,32119))</t>
-  </si>
-  <si>
-    <t>(82011,'texto de prueba',(36919,52818,23319,38219,23119,25819,32119,))</t>
-  </si>
-  <si>
-    <t>(36919,'texto de prueba',(62511,23319,38219,23119,25819,32119,,))</t>
-  </si>
-  <si>
-    <t>(62511,'texto de prueba',(52818,38219,23119,25819,32119,,,))</t>
-  </si>
-  <si>
-    <t>(52818,'texto de prueba',(23319,23119,25819,32119,,,,))</t>
-  </si>
-  <si>
-    <t>(23319,'texto de prueba',(38219,25819,32119,,,,,))</t>
-  </si>
-  <si>
-    <t>(38219,'texto de prueba',(23119,32119,,,,,,))</t>
-  </si>
-  <si>
-    <t>(23119,'texto de prueba',(25819,,,,,,,))</t>
-  </si>
-  <si>
-    <t>(25819,'texto de prueba',(32119,,,,,,,))</t>
-  </si>
-  <si>
-    <t>(32119,'texto de prueba',(25819,,,,,,,))]</t>
+    <t>((5518,'Grassi Lucía Karina'),(23919,'Scocozza Simon Nicolas'))</t>
+  </si>
+  <si>
+    <t>((23919,'Scocozza Simon Nicolas'),(44819,'Ruiz Cortes Jeferson Osmeider'))</t>
+  </si>
+  <si>
+    <t>((5518,'Grassi Lucía Karina'),(44819,'Ruiz Cortes Jeferson Osmeider'))</t>
+  </si>
+  <si>
+    <t>((41718,'Estévez Santiago Tomás'),(44713,'Balboa Guillermo Raul'))</t>
+  </si>
+  <si>
+    <t>((44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'))</t>
+  </si>
+  <si>
+    <t>((41718,'Estévez Santiago Tomás'),(18719,'Canedo Emiliano'))</t>
+  </si>
+  <si>
+    <t>((20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'))</t>
+  </si>
+  <si>
+    <t>((24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'))</t>
+  </si>
+  <si>
+    <t>((20217,'Abate Nicolás Bruno'),(36517,'Chaves Jonatan Ignacio'))</t>
+  </si>
+  <si>
+    <t>((48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro'))</t>
+  </si>
+  <si>
+    <t>((5019,'Akris Ramiro'),(45819,'Chab Kenaan Uriel'))</t>
+  </si>
+  <si>
+    <t>((48319,'De Vicenzo Nahuel Hernan'),(45819,'Chab Kenaan Uriel'))</t>
+  </si>
+  <si>
+    <t>((41719,'Segovia Diego Matías'),(35919,'Polverino Lorenzo'))</t>
+  </si>
+  <si>
+    <t>((35919,'Polverino Lorenzo'),(26419,'Ramos Pablo'))</t>
+  </si>
+  <si>
+    <t>((41719,'Segovia Diego Matías'),(26419,'Ramos Pablo'))</t>
+  </si>
+  <si>
+    <t>((36819,'Feldman Mateo Agustin'),(55516,'Gonzalez Pereira Maria Celeste'))</t>
+  </si>
+  <si>
+    <t>((55516,'Gonzalez Pereira Maria Celeste'),(5919,'Fumagalli Teo'))</t>
+  </si>
+  <si>
+    <t>((36819,'Feldman Mateo Agustin'),(5919,'Fumagalli Teo'))</t>
+  </si>
+  <si>
+    <t>((30019,'Rivarola Mariana Cecilia'),(13919,'Principe Acero Diana '))</t>
+  </si>
+  <si>
+    <t>((13919,'Principe Acero Diana '),(37719,'Pérez Del Cerro Catalina'))</t>
+  </si>
+  <si>
+    <t>((30019,'Rivarola Mariana Cecilia'),(37719,'Pérez Del Cerro Catalina'))</t>
+  </si>
+  <si>
+    <t>((43635,'Rijo Oswald Eduardo'),(36619,'Carnelutti Magurno Salvador'))</t>
+  </si>
+  <si>
+    <t>((36619,'Carnelutti Magurno Salvador'),(21719,'Meier Brian Jonathan'))</t>
+  </si>
+  <si>
+    <t>((43635,'Rijo Oswald Eduardo'),(21719,'Meier Brian Jonathan'))</t>
+  </si>
+  <si>
+    <t>((64407,'Garcia Ruben Dario'),(44919,'Valls Valentin Franco'))</t>
+  </si>
+  <si>
+    <t>((44919,'Valls Valentin Franco'),(47119,'Riveiro Martin Gabriel'))</t>
+  </si>
+  <si>
+    <t>((64407,'Garcia Ruben Dario'),(47119,'Riveiro Martin Gabriel'))</t>
+  </si>
+  <si>
+    <t>((5719,'Rodriguez Miguel'),(16919,'Itzcovitz Ryan'))</t>
+  </si>
+  <si>
+    <t>((16919,'Itzcovitz Ryan'),(Condicion,'Mariano Pironio'))</t>
+  </si>
+  <si>
+    <t>((5719,'Rodriguez Miguel'),(Condicion,'Mariano Pironio'))</t>
+  </si>
+  <si>
+    <t>((34619,'Hermosilla Báez Agustín'),(57619,'Cantini Budden Sebastian'))</t>
+  </si>
+  <si>
+    <t>((57619,'Cantini Budden Sebastian'),(25719,'Seva Nicolás Leonel'))</t>
+  </si>
+  <si>
+    <t>((34619,'Hermosilla Báez Agustín'),(25719,'Seva Nicolás Leonel'))</t>
+  </si>
+  <si>
+    <t>((12319,'Martin Batista Ignacio'),(27219,'Mañez Grondona Jesús Ignacio'))</t>
+  </si>
+  <si>
+    <t>((27219,'Mañez Grondona Jesús Ignacio'),(34419,'Bongiovanni Franco Alessio'))</t>
+  </si>
+  <si>
+    <t>((12319,'Martin Batista Ignacio'),(34419,'Bongiovanni Franco Alessio'))</t>
+  </si>
+  <si>
+    <t>((50519,'Rodríguez Calzada Braian Edgardo'),(45719,'Mendoza Lucas Emmanuel'))</t>
+  </si>
+  <si>
+    <t>((45719,'Mendoza Lucas Emmanuel'),(22519,'Basualdo Camilo Alejandro'))</t>
+  </si>
+  <si>
+    <t>((50519,'Rodríguez Calzada Braian Edgardo'),(22519,'Basualdo Camilo Alejandro'))</t>
+  </si>
+  <si>
+    <t>((6119,'Wiszniewer Violeta'),(32519,'Burgos Pesqueira Maria Agustina'))</t>
+  </si>
+  <si>
+    <t>((32519,'Burgos Pesqueira Maria Agustina'),(48719,'Ainchil Manuela'))</t>
+  </si>
+  <si>
+    <t>((6119,'Wiszniewer Violeta'),(48719,'Ainchil Manuela'))</t>
+  </si>
+  <si>
+    <t>((22919,'Cinquemani Maximiliano Emanuel'),(14819,'Bogliacino Felipe Alfredo'))</t>
+  </si>
+  <si>
+    <t>((14819,'Bogliacino Felipe Alfredo'),(67618,'Bellazzi Franco'))</t>
+  </si>
+  <si>
+    <t>((22919,'Cinquemani Maximiliano Emanuel'),(67618,'Bellazzi Franco'))</t>
+  </si>
+  <si>
+    <t>((10819,'Salmun Daniel'),(28419,'Bulacio Granata Blas'))</t>
+  </si>
+  <si>
+    <t>((28419,'Bulacio Granata Blas'),(47419,'Gilabert Juan Bautista'))</t>
+  </si>
+  <si>
+    <t>((10819,'Salmun Daniel'),(47419,'Gilabert Juan Bautista'))</t>
+  </si>
+  <si>
+    <t>((14119,'Tomasini Lucas Daniel'),(10219,'Almada Canosa Agustin Nicolas'))</t>
+  </si>
+  <si>
+    <t>((10219,'Almada Canosa Agustin Nicolas'),(42719,'Liendro Adolfo Benjamin'))</t>
+  </si>
+  <si>
+    <t>((14119,'Tomasini Lucas Daniel'),(42719,'Liendro Adolfo Benjamin'))</t>
+  </si>
+  <si>
+    <t>((22219,'Zolezzi María Victoria'),(13619,'Herrero Francisco Jose'))</t>
+  </si>
+  <si>
+    <t>((13619,'Herrero Francisco Jose'),(42419,'Miceli Juan Pablo'))</t>
+  </si>
+  <si>
+    <t>((22219,'Zolezzi María Victoria'),(42419,'Miceli Juan Pablo'))</t>
+  </si>
+  <si>
+    <t>((32319,'Oppenheim Abi Noam'),(24519,'Felder Andres'))</t>
+  </si>
+  <si>
+    <t>((24519,'Felder Andres'),(46919,'Grinspan Ian'))</t>
+  </si>
+  <si>
+    <t>((32319,'Oppenheim Abi Noam'),(46919,'Grinspan Ian'))</t>
+  </si>
+  <si>
+    <t>((10719,'Russo Guiot Gabriel Marcelo'),(44419,'Palladino Leonardo Victor'))</t>
+  </si>
+  <si>
+    <t>((44419,'Palladino Leonardo Victor'),(22419,'Martinez Abeldaño Facundo'))</t>
+  </si>
+  <si>
+    <t>((10719,'Russo Guiot Gabriel Marcelo'),(22419,'Martinez Abeldaño Facundo'))</t>
+  </si>
+  <si>
+    <t>((30019,'Rivarola Mariana Cecilia'),(79418,'Yguaneti Docampo Renny Jesús'))</t>
+  </si>
+  <si>
+    <t>((79418,'Yguaneti Docampo Renny Jesús'),(12219,'Coronel Christian Leonardo'))</t>
+  </si>
+  <si>
+    <t>((30019,'Rivarola Mariana Cecilia'),(12219,'Coronel Christian Leonardo'))</t>
+  </si>
+  <si>
+    <t>((30419,'Shimane Mariana Nicole'),(15919,'Villagra Tomas'))</t>
+  </si>
+  <si>
+    <t>((15919,'Villagra Tomas'),(22119,'Dorda Recalde Maria De Las Mercedes'))</t>
+  </si>
+  <si>
+    <t>((30419,'Shimane Mariana Nicole'),(22119,'Dorda Recalde Maria De Las Mercedes'))</t>
+  </si>
+  <si>
+    <t>((26319,'Calla Martin Alejandro'),(24819,'Torsello Juan Manuel'))</t>
+  </si>
+  <si>
+    <t>((24819,'Torsello Juan Manuel'),(22914,'Fantagossi Nicolás Ezequiel'))</t>
+  </si>
+  <si>
+    <t>((26319,'Calla Martin Alejandro'),(22914,'Fantagossi Nicolás Ezequiel'))</t>
+  </si>
+  <si>
+    <t>((47519,'Carabajal Gonzalo'),(31019,'Yazlle Maximo'))</t>
+  </si>
+  <si>
+    <t>((31019,'Yazlle Maximo'),(26119,'Guzmán Cárdenas David Alejandro'))</t>
+  </si>
+  <si>
+    <t>((47519,'Carabajal Gonzalo'),(26119,'Guzmán Cárdenas David Alejandro'))</t>
+  </si>
+  <si>
+    <t>((74118,'Sarmiento Matías Federico'),(10919,'Pautasso Manuel'))</t>
+  </si>
+  <si>
+    <t>((10919,'Pautasso Manuel'),(9519,'Rios Daniel Alberto'))</t>
+  </si>
+  <si>
+    <t>((74118,'Sarmiento Matías Federico'),(9519,'Rios Daniel Alberto'))</t>
+  </si>
+  <si>
+    <t>((82218,'Pereira Cinthya Ayelen'),(12919,'Minino Suarez Eliana Mariel'))</t>
+  </si>
+  <si>
+    <t>((12919,'Minino Suarez Eliana Mariel'),(5118,'Reinoso Julian'))</t>
+  </si>
+  <si>
+    <t>((82218,'Pereira Cinthya Ayelen'),(5118,'Reinoso Julian'))</t>
+  </si>
+  <si>
+    <t>((20919,'Borrelli Victoria'),(35519,'Loleo Saigos Belen'))</t>
+  </si>
+  <si>
+    <t>((35519,'Loleo Saigos Belen'),(6219,'Bruno Patricio Damián'))</t>
+  </si>
+  <si>
+    <t>((20919,'Borrelli Victoria'),(6219,'Bruno Patricio Damián'))</t>
+  </si>
+  <si>
+    <t>((32919,'Ravaglia Santiago Matias'),(5619,'Bustos Gonzalo Martín'))</t>
+  </si>
+  <si>
+    <t>((5619,'Bustos Gonzalo Martín'),(80917,'Aguilar Santiago'))</t>
+  </si>
+  <si>
+    <t>((32919,'Ravaglia Santiago Matias'),(80917,'Aguilar Santiago'))</t>
+  </si>
+  <si>
+    <t>((55019,'Gonzalez Bugtrup Facundo'),(51719,'Aranguren Venero Miguel Alejandro'))</t>
+  </si>
+  <si>
+    <t>((51719,'Aranguren Venero Miguel Alejandro'),(49119,'Arranz Florek Yamila Iara'))</t>
+  </si>
+  <si>
+    <t>((55019,'Gonzalez Bugtrup Facundo'),(49119,'Arranz Florek Yamila Iara'))</t>
+  </si>
+  <si>
+    <t>((57718,'Gorosito Luciana'),(51019,'Gomez Nicolás Rubén'))</t>
+  </si>
+  <si>
+    <t>((51019,'Gomez Nicolás Rubén'),(7819,'Páez María Belén'))</t>
+  </si>
+  <si>
+    <t>((57718,'Gorosito Luciana'),(7819,'Páez María Belén'))</t>
+  </si>
+  <si>
+    <t>((41019,'Silva Fernandez Ignacio Tomas'),(3719,'Suaiter Federico Hernán'))</t>
+  </si>
+  <si>
+    <t>((3719,'Suaiter Federico Hernán'),(23019,'Fabian Florencia'))</t>
+  </si>
+  <si>
+    <t>((41019,'Silva Fernandez Ignacio Tomas'),(23019,'Fabian Florencia'))</t>
+  </si>
+  <si>
+    <t>((56018,'Puglisi Sebastian Ignacio'),(26619,'Maspi Gian Agustín'))</t>
+  </si>
+  <si>
+    <t>((26619,'Maspi Gian Agustín'),(13019,'Tambussi Juan Bautista'))</t>
+  </si>
+  <si>
+    <t>((56018,'Puglisi Sebastian Ignacio'),(13019,'Tambussi Juan Bautista'))</t>
+  </si>
+  <si>
+    <t>((25919,'Bobzin Lucía Victoria'),(51619,'Cristi Federico'))</t>
+  </si>
+  <si>
+    <t>((51619,'Cristi Federico'),(42224643,'Pedro Alvarez Capdevila'))</t>
+  </si>
+  <si>
+    <t>((25919,'Bobzin Lucía Victoria'),(42224643,'Pedro Alvarez Capdevila'))</t>
+  </si>
+  <si>
+    <t>((28219,'Lavalle Cobo Ignacio'),(14519,'Volij Matias Ariel'))</t>
+  </si>
+  <si>
+    <t>((14519,'Volij Matias Ariel'),(29919,'Schiavinato Mauro Luis'))</t>
+  </si>
+  <si>
+    <t>((28219,'Lavalle Cobo Ignacio'),(29919,'Schiavinato Mauro Luis'))</t>
+  </si>
+  <si>
+    <t>((35117,'Yulita Federico'),(36119,'Serna Joaquín Sebastián'))</t>
+  </si>
+  <si>
+    <t>((36119,'Serna Joaquín Sebastián'),(6619,'Choclin Juana'))</t>
+  </si>
+  <si>
+    <t>((35117,'Yulita Federico'),(6619,'Choclin Juana'))</t>
+  </si>
+  <si>
+    <t>((41419,'Fiora Victoria María'),(31419,'Goria Julieta'))</t>
+  </si>
+  <si>
+    <t>((31419,'Goria Julieta'),(22619,'Chanes Mauricio'))</t>
+  </si>
+  <si>
+    <t>((41419,'Fiora Victoria María'),(22619,'Chanes Mauricio'))</t>
+  </si>
+  <si>
+    <t>((2919,'Cámara Maximiliano Ariel'),(23117,'Greco Francisco'))</t>
+  </si>
+  <si>
+    <t>((23117,'Greco Francisco'),(19019,'Zion Ezequiel Joaquín'))</t>
+  </si>
+  <si>
+    <t>((2919,'Cámara Maximiliano Ariel'),(19019,'Zion Ezequiel Joaquín'))</t>
+  </si>
+  <si>
+    <t>((20319,'Castro Russo Matias Nahuel'),(5819,'Saied Martin Yoel'))</t>
+  </si>
+  <si>
+    <t>((5819,'Saied Martin Yoel'),(45119,'Varani Victoria Antonella'))</t>
+  </si>
+  <si>
+    <t>((20319,'Castro Russo Matias Nahuel'),(45119,'Varani Victoria Antonella'))</t>
+  </si>
+  <si>
+    <t>((32719,'Curti Tomas Agustin'),(17219,'Sovilj Marko Agustín'))</t>
+  </si>
+  <si>
+    <t>((17219,'Sovilj Marko Agustín'),(12019,'Cagnoni Speranza Sebastian Eduardo'))</t>
+  </si>
+  <si>
+    <t>((32719,'Curti Tomas Agustin'),(12019,'Cagnoni Speranza Sebastian Eduardo'))</t>
+  </si>
+  <si>
+    <t>((35719,'Sobrino Ezequiel'),(37419,'Rodriguez Celma Guido'))</t>
+  </si>
+  <si>
+    <t>((37419,'Rodriguez Celma Guido'),(15219,'Juárez Guillén Sofía'))</t>
+  </si>
+  <si>
+    <t>((35719,'Sobrino Ezequiel'),(15219,'Juárez Guillén Sofía'))</t>
+  </si>
+  <si>
+    <t>((37719,'Pérez Del Cerro Catalina'),(20119,'Vicharra Sanchez Dylan Steven'))</t>
+  </si>
+  <si>
+    <t>((13919,'Principe Acero Diana '),(20119,'Vicharra Sanchez Dylan Steven'))</t>
+  </si>
+  <si>
+    <t>((33419,'Petre Federico Julián'),(29119,'López Marcelo Fabián'))</t>
+  </si>
+  <si>
+    <t>((29119,'López Marcelo Fabián'),(34819,'Demarco Franco Daniel'))</t>
+  </si>
+  <si>
+    <t>((33419,'Petre Federico Julián'),(34819,'Demarco Franco Daniel'))</t>
+  </si>
+  <si>
+    <t>((44418,'Aranda Daiana Ailen'),(51319,'Aramayo María Paola'))</t>
+  </si>
+  <si>
+    <t>((51319,'Aramayo María Paola'),(55319,'Pardo Cristopher Jonas'))</t>
+  </si>
+  <si>
+    <t>((44418,'Aranda Daiana Ailen'),(55319,'Pardo Cristopher Jonas'))</t>
+  </si>
+  <si>
+    <t>((43319,'Acha Francisco'),(5319,'Rodriguez Ruiz Santiago'))</t>
+  </si>
+  <si>
+    <t>((5319,'Rodriguez Ruiz Santiago'),(27019,'Palacio Octavio'))</t>
+  </si>
+  <si>
+    <t>((43319,'Acha Francisco'),(27019,'Palacio Octavio'))</t>
+  </si>
+  <si>
+    <t>((49819,'Muñiz Laureano'),(35219,'Parra Corti María Belén'))</t>
+  </si>
+  <si>
+    <t>((35219,'Parra Corti María Belén'),(19319,'Turco Dario Juan Nicolas'))</t>
+  </si>
+  <si>
+    <t>((49819,'Muñiz Laureano'),(19319,'Turco Dario Juan Nicolas'))</t>
+  </si>
+  <si>
+    <t>((8419,'Tarsia Luciano Fabrizio'),(48919,'Duleba Mendoza Marcos Angel Alexander'))</t>
+  </si>
+  <si>
+    <t>((48919,'Duleba Mendoza Marcos Angel Alexander'),(10119,'Pérez Herrero Alejo Daniel'))</t>
+  </si>
+  <si>
+    <t>((8419,'Tarsia Luciano Fabrizio'),(10119,'Pérez Herrero Alejo Daniel'))</t>
+  </si>
+  <si>
+    <t>((9218,'Galeano Juan Ignacio'),(92328555,'Carlos Zerda'))</t>
+  </si>
+  <si>
+    <t>((92328555,'Carlos Zerda'),(8319,'Capelo Gianluca'))</t>
+  </si>
+  <si>
+    <t>((9218,'Galeano Juan Ignacio'),(8319,'Capelo Gianluca'))</t>
+  </si>
+  <si>
+    <t>((9019,'Filgueira Julián Gabriel'),(52918,'Torres Dario Sebastian'))</t>
+  </si>
+  <si>
+    <t>((52918,'Torres Dario Sebastian'),(28719,'Goy Agustin'))</t>
+  </si>
+  <si>
+    <t>((9019,'Filgueira Julián Gabriel'),(28719,'Goy Agustin'))</t>
+  </si>
+  <si>
+    <t>((9119,'Iturriza Ramirez Joaquín'),(47719,'Spisso Nicolás Ariel'))</t>
+  </si>
+  <si>
+    <t>((47719,'Spisso Nicolás Ariel'),(18319,'Belgorodsky Martin Yoel'))</t>
+  </si>
+  <si>
+    <t>((9119,'Iturriza Ramirez Joaquín'),(18319,'Belgorodsky Martin Yoel'))</t>
+  </si>
+  <si>
+    <t>((9719,'Dondo Ignacio'),(56419,'Perez Labra Jean Lucas'))</t>
+  </si>
+  <si>
+    <t>((56419,'Perez Labra Jean Lucas'),(43919,'Coceres Ezequiel Oscar'))</t>
+  </si>
+  <si>
+    <t>((9719,'Dondo Ignacio'),(43919,'Coceres Ezequiel Oscar'))</t>
+  </si>
+  <si>
+    <t>((50219,'Repollo Nicolas'),(40519,'Jaimes Leandro Julián'))</t>
+  </si>
+  <si>
+    <t>((40519,'Jaimes Leandro Julián'),(46019,'Pajor Ivo'))</t>
+  </si>
+  <si>
+    <t>((50219,'Repollo Nicolas'),(46019,'Pajor Ivo'))</t>
+  </si>
+  <si>
+    <t>((14619,'Mischener Forte Uriel Ivan'),(57119,'Marino Zoe'))</t>
+  </si>
+  <si>
+    <t>((57119,'Marino Zoe'),(11319,'Sujovolsky Tomás'))</t>
+  </si>
+  <si>
+    <t>((14619,'Mischener Forte Uriel Ivan'),(11319,'Sujovolsky Tomás'))</t>
+  </si>
+  <si>
+    <t>((26519,'Wappner Daniel'),(11119,'Ernst Erik'))</t>
+  </si>
+  <si>
+    <t>((11119,'Ernst Erik'),(40419,'La Ruffa Franco'))</t>
+  </si>
+  <si>
+    <t>((26519,'Wappner Daniel'),(40419,'La Ruffa Franco'))</t>
+  </si>
+  <si>
+    <t>((55419,'Ferraro Lucas Francisco'),(4812,'Van Der Velde Guido Gustavo'))</t>
+  </si>
+  <si>
+    <t>((4812,'Van Der Velde Guido Gustavo'),(9009,'Ramirez Leandro Jesús'))</t>
+  </si>
+  <si>
+    <t>((55419,'Ferraro Lucas Francisco'),(9009,'Ramirez Leandro Jesús'))</t>
+  </si>
+  <si>
+    <t>((52419,'Lopetrone Gianfranco'),(45919,'Baril Tomas Adolfo'))</t>
+  </si>
+  <si>
+    <t>((45919,'Baril Tomas Adolfo'),(46419,'Kuktosky Fernandez Matheo Andres'))</t>
+  </si>
+  <si>
+    <t>((52419,'Lopetrone Gianfranco'),(46419,'Kuktosky Fernandez Matheo Andres'))</t>
+  </si>
+  <si>
+    <t>((29319,'Lerer Joaquín Matías'),(94805,'Alvis César'))</t>
+  </si>
+  <si>
+    <t>((94805,'Alvis César'),(82011,'Mattes Francisco'))</t>
+  </si>
+  <si>
+    <t>((29319,'Lerer Joaquín Matías'),(82011,'Mattes Francisco'))</t>
+  </si>
+  <si>
+    <t>((36919,'Ilundayn Ivan Antiel'),(62511,'Desinano Nicolas'))</t>
+  </si>
+  <si>
+    <t>((62511,'Desinano Nicolas'),(52818,'Klein Pablo Andrés'))</t>
+  </si>
+  <si>
+    <t>((36919,'Ilundayn Ivan Antiel'),(52818,'Klein Pablo Andrés'))</t>
+  </si>
+  <si>
+    <t>((23319,'Bolaños Cecilia Micaela'),(38219,'Kunik Alejandro Yuri'))</t>
+  </si>
+  <si>
+    <t>((38219,'Kunik Alejandro Yuri'),(23119,'Rodriguez Pardina Laura'))</t>
+  </si>
+  <si>
+    <t>((23319,'Bolaños Cecilia Micaela'),(23119,'Rodriguez Pardina Laura'))</t>
+  </si>
+  <si>
+    <t>((25819,'Varela Santiago Daniel'),(32119,'García Micaela'))</t>
+  </si>
+  <si>
+    <t>((5518,'Grassi Lucía Karina'),'texto de prueba',[(23919,'Scocozza Simon Nicolas'),5019,(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan')])</t>
+  </si>
+  <si>
+    <t>((23919,'Scocozza Simon Nicolas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((44819,'Ruiz Cortes Jeferson Osmeider'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((41718,'Estévez Santiago Tomás'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((44713,'Balboa Guillermo Raul'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((18719,'Canedo Emiliano'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((20217,'Abate Nicolás Bruno'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((24717,'Toro Julián Hernan'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((36517,'Chaves Jonatan Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((48319,'De Vicenzo Nahuel Hernan'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5019,'Akris Ramiro'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((45819,'Chab Kenaan Uriel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((41719,'Segovia Diego Matías'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((35919,'Polverino Lorenzo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((26419,'Ramos Pablo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((36819,'Feldman Mateo Agustin'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((55516,'Gonzalez Pereira Maria Celeste'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5919,'Fumagalli Teo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((30019,'Rivarola Mariana Cecilia'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((13919,'Principe Acero Diana '),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((37719,'Pérez Del Cerro Catalina'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((43635,'Rijo Oswald Eduardo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((36619,'Carnelutti Magurno Salvador'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((21719,'Meier Brian Jonathan'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((64407,'Garcia Ruben Dario'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((44919,'Valls Valentin Franco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((47119,'Riveiro Martin Gabriel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5719,'Rodriguez Miguel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((16919,'Itzcovitz Ryan'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((Condicion,'Mariano Pironio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((34619,'Hermosilla Báez Agustín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((57619,'Cantini Budden Sebastian'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((25719,'Seva Nicolás Leonel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((12319,'Martin Batista Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((27219,'Mañez Grondona Jesús Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((34419,'Bongiovanni Franco Alessio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((50519,'Rodríguez Calzada Braian Edgardo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((45719,'Mendoza Lucas Emmanuel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22519,'Basualdo Camilo Alejandro'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((6119,'Wiszniewer Violeta'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((32519,'Burgos Pesqueira Maria Agustina'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((48719,'Ainchil Manuela'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22919,'Cinquemani Maximiliano Emanuel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((14819,'Bogliacino Felipe Alfredo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((67618,'Bellazzi Franco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((10819,'Salmun Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((28419,'Bulacio Granata Blas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((47419,'Gilabert Juan Bautista'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((14119,'Tomasini Lucas Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((10219,'Almada Canosa Agustin Nicolas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((42719,'Liendro Adolfo Benjamin'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22219,'Zolezzi María Victoria'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((13619,'Herrero Francisco Jose'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((42419,'Miceli Juan Pablo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((32319,'Oppenheim Abi Noam'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((24519,'Felder Andres'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((46919,'Grinspan Ian'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((10719,'Russo Guiot Gabriel Marcelo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((44419,'Palladino Leonardo Victor'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22419,'Martinez Abeldaño Facundo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((79418,'Yguaneti Docampo Renny Jesús'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((12219,'Coronel Christian Leonardo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((30419,'Shimane Mariana Nicole'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((15919,'Villagra Tomas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22119,'Dorda Recalde Maria De Las Mercedes'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((26319,'Calla Martin Alejandro'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((24819,'Torsello Juan Manuel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22914,'Fantagossi Nicolás Ezequiel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((47519,'Carabajal Gonzalo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((31019,'Yazlle Maximo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((26119,'Guzmán Cárdenas David Alejandro'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((74118,'Sarmiento Matías Federico'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((10919,'Pautasso Manuel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9519,'Rios Daniel Alberto'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((82218,'Pereira Cinthya Ayelen'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((12919,'Minino Suarez Eliana Mariel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5118,'Reinoso Julian'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((20919,'Borrelli Victoria'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((35519,'Loleo Saigos Belen'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((6219,'Bruno Patricio Damián'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((32919,'Ravaglia Santiago Matias'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5619,'Bustos Gonzalo Martín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((80917,'Aguilar Santiago'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((55019,'Gonzalez Bugtrup Facundo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((51719,'Aranguren Venero Miguel Alejandro'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((49119,'Arranz Florek Yamila Iara'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((57718,'Gorosito Luciana'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((51019,'Gomez Nicolás Rubén'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((7819,'Páez María Belén'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((41019,'Silva Fernandez Ignacio Tomas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((3719,'Suaiter Federico Hernán'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((23019,'Fabian Florencia'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((56018,'Puglisi Sebastian Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((26619,'Maspi Gian Agustín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((13019,'Tambussi Juan Bautista'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((25919,'Bobzin Lucía Victoria'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((51619,'Cristi Federico'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((42224643,'Pedro Alvarez Capdevila'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((28219,'Lavalle Cobo Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((14519,'Volij Matias Ariel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((29919,'Schiavinato Mauro Luis'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((35117,'Yulita Federico'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((36119,'Serna Joaquín Sebastián'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((6619,'Choclin Juana'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((41419,'Fiora Victoria María'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((31419,'Goria Julieta'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((22619,'Chanes Mauricio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((2919,'Cámara Maximiliano Ariel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((23117,'Greco Francisco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((19019,'Zion Ezequiel Joaquín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((20319,'Castro Russo Matias Nahuel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5819,'Saied Martin Yoel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((45119,'Varani Victoria Antonella'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((32719,'Curti Tomas Agustin'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((17219,'Sovilj Marko Agustín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((12019,'Cagnoni Speranza Sebastian Eduardo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((35719,'Sobrino Ezequiel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((37419,'Rodriguez Celma Guido'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((15219,'Juárez Guillén Sofía'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((20119,'Vicharra Sanchez Dylan Steven'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((33419,'Petre Federico Julián'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((29119,'López Marcelo Fabián'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((34819,'Demarco Franco Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((44418,'Aranda Daiana Ailen'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((51319,'Aramayo María Paola'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((55319,'Pardo Cristopher Jonas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((43319,'Acha Francisco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((5319,'Rodriguez Ruiz Santiago'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((27019,'Palacio Octavio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((49819,'Muñiz Laureano'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((35219,'Parra Corti María Belén'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((19319,'Turco Dario Juan Nicolas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((8419,'Tarsia Luciano Fabrizio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((48919,'Duleba Mendoza Marcos Angel Alexander'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((10119,'Pérez Herrero Alejo Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9218,'Galeano Juan Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((92328555,'Carlos Zerda'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((8319,'Capelo Gianluca'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9019,'Filgueira Julián Gabriel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((52918,'Torres Dario Sebastian'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((28719,'Goy Agustin'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9119,'Iturriza Ramirez Joaquín'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((47719,'Spisso Nicolás Ariel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((18319,'Belgorodsky Martin Yoel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9719,'Dondo Ignacio'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((56419,'Perez Labra Jean Lucas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((43919,'Coceres Ezequiel Oscar'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((50219,'Repollo Nicolas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((40519,'Jaimes Leandro Julián'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((46019,'Pajor Ivo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((14619,'Mischener Forte Uriel Ivan'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((57119,'Marino Zoe'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((11319,'Sujovolsky Tomás'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((26519,'Wappner Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((11119,'Ernst Erik'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((40419,'La Ruffa Franco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((55419,'Ferraro Lucas Francisco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((4812,'Van Der Velde Guido Gustavo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((9009,'Ramirez Leandro Jesús'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((52419,'Lopetrone Gianfranco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((45919,'Baril Tomas Adolfo'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((46419,'Kuktosky Fernandez Matheo Andres'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((29319,'Lerer Joaquín Matías'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((94805,'Alvis César'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((82011,'Mattes Francisco'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((36919,'Ilundayn Ivan Antiel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((62511,'Desinano Nicolas'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((52818,'Klein Pablo Andrés'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((23319,'Bolaños Cecilia Micaela'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((38219,'Kunik Alejandro Yuri'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((23119,'Rodriguez Pardina Laura'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
+  </si>
+  <si>
+    <t>((25819,'Varela Santiago Daniel'),'texto de prueba',[(44819,'Ruiz Cortes Jeferson Osmeider'),(44713,'Balboa Guillermo Raul'),(18719,'Canedo Emiliano'),(20217,'Abate Nicolás Bruno'),(24717,'Toro Julián Hernan'),(36517,'Chaves Jonatan Ignacio'),(48319,'De Vicenzo Nahuel Hernan'),(5019,'Akris Ramiro')])</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1946,7 @@
   <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:FT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,349 +3279,349 @@
         <v>408</v>
       </c>
       <c r="BJ3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BK3" t="s">
         <v>409</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>410</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>411</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>412</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>413</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>414</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>415</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>416</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
         <v>417</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>418</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>419</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>420</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" t="s">
         <v>421</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>422</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BY3" t="s">
         <v>423</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
         <v>424</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CA3" t="s">
         <v>425</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CB3" t="s">
         <v>426</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CC3" t="s">
         <v>427</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CD3" t="s">
         <v>428</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CE3" t="s">
         <v>429</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CF3" t="s">
         <v>430</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CG3" t="s">
         <v>431</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CH3" t="s">
         <v>432</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CI3" t="s">
         <v>433</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CJ3" t="s">
         <v>434</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CK3" t="s">
         <v>435</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CL3" t="s">
         <v>436</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CM3" t="s">
         <v>437</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CN3" t="s">
         <v>438</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CO3" t="s">
         <v>439</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CP3" t="s">
         <v>440</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CQ3" t="s">
         <v>441</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" t="s">
         <v>442</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CS3" t="s">
         <v>443</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CT3" t="s">
         <v>444</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
         <v>445</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CV3" t="s">
         <v>446</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CW3" t="s">
         <v>447</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CX3" t="s">
         <v>448</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="CY3" t="s">
         <v>449</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CZ3" t="s">
         <v>450</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="DA3" t="s">
         <v>451</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DB3" t="s">
         <v>452</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DC3" t="s">
         <v>453</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DD3" t="s">
         <v>454</v>
       </c>
-      <c r="DD3" t="s">
+      <c r="DE3" t="s">
         <v>455</v>
       </c>
-      <c r="DE3" t="s">
+      <c r="DF3" t="s">
         <v>456</v>
       </c>
-      <c r="DF3" t="s">
+      <c r="DG3" t="s">
         <v>457</v>
       </c>
-      <c r="DG3" t="s">
+      <c r="DH3" t="s">
         <v>458</v>
       </c>
-      <c r="DH3" t="s">
+      <c r="DI3" t="s">
         <v>459</v>
       </c>
-      <c r="DI3" t="s">
+      <c r="DJ3" t="s">
         <v>460</v>
       </c>
-      <c r="DJ3" t="s">
+      <c r="DK3" t="s">
         <v>461</v>
       </c>
-      <c r="DK3" t="s">
+      <c r="DL3" t="s">
         <v>462</v>
       </c>
-      <c r="DL3" t="s">
+      <c r="DM3" t="s">
         <v>463</v>
       </c>
-      <c r="DM3" t="s">
+      <c r="DN3" t="s">
         <v>464</v>
       </c>
-      <c r="DN3" t="s">
+      <c r="DO3" t="s">
         <v>465</v>
       </c>
-      <c r="DO3" t="s">
+      <c r="DP3" t="s">
         <v>466</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="DQ3" t="s">
         <v>467</v>
       </c>
-      <c r="DQ3" t="s">
+      <c r="DR3" t="s">
+        <v>368</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>369</v>
+      </c>
+      <c r="DT3" t="s">
         <v>468</v>
       </c>
-      <c r="DR3" t="s">
+      <c r="DU3" t="s">
         <v>469</v>
       </c>
-      <c r="DS3" t="s">
+      <c r="DV3" t="s">
         <v>470</v>
       </c>
-      <c r="DT3" t="s">
+      <c r="DW3" t="s">
         <v>471</v>
       </c>
-      <c r="DU3" t="s">
+      <c r="DX3" t="s">
         <v>472</v>
       </c>
-      <c r="DV3" t="s">
+      <c r="DY3" t="s">
         <v>473</v>
       </c>
-      <c r="DW3" t="s">
+      <c r="DZ3" t="s">
         <v>474</v>
       </c>
-      <c r="DX3" t="s">
+      <c r="EA3" t="s">
         <v>475</v>
       </c>
-      <c r="DY3" t="s">
+      <c r="EB3" t="s">
         <v>476</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="EC3" t="s">
         <v>477</v>
       </c>
-      <c r="EA3" t="s">
+      <c r="ED3" t="s">
         <v>478</v>
       </c>
-      <c r="EB3" t="s">
+      <c r="EE3" t="s">
         <v>479</v>
       </c>
-      <c r="EC3" t="s">
+      <c r="EF3" t="s">
         <v>480</v>
       </c>
-      <c r="ED3" t="s">
+      <c r="EG3" t="s">
         <v>481</v>
       </c>
-      <c r="EE3" t="s">
+      <c r="EH3" t="s">
         <v>482</v>
       </c>
-      <c r="EF3" t="s">
+      <c r="EI3" t="s">
         <v>483</v>
       </c>
-      <c r="EG3" t="s">
+      <c r="EJ3" t="s">
         <v>484</v>
       </c>
-      <c r="EH3" t="s">
+      <c r="EK3" t="s">
         <v>485</v>
       </c>
-      <c r="EI3" t="s">
+      <c r="EL3" t="s">
         <v>486</v>
       </c>
-      <c r="EJ3" t="s">
+      <c r="EM3" t="s">
         <v>487</v>
       </c>
-      <c r="EK3" t="s">
+      <c r="EN3" t="s">
         <v>488</v>
       </c>
-      <c r="EL3" t="s">
+      <c r="EO3" t="s">
         <v>489</v>
       </c>
-      <c r="EM3" t="s">
+      <c r="EP3" t="s">
         <v>490</v>
       </c>
-      <c r="EN3" t="s">
+      <c r="EQ3" t="s">
         <v>491</v>
       </c>
-      <c r="EO3" t="s">
+      <c r="ER3" t="s">
         <v>492</v>
       </c>
-      <c r="EP3" t="s">
+      <c r="ES3" t="s">
         <v>493</v>
       </c>
-      <c r="EQ3" t="s">
+      <c r="ET3" t="s">
         <v>494</v>
       </c>
-      <c r="ER3" t="s">
+      <c r="EU3" t="s">
         <v>495</v>
       </c>
-      <c r="ES3" t="s">
+      <c r="EV3" t="s">
         <v>496</v>
       </c>
-      <c r="ET3" t="s">
+      <c r="EW3" t="s">
         <v>497</v>
       </c>
-      <c r="EU3" t="s">
+      <c r="EX3" t="s">
         <v>498</v>
       </c>
-      <c r="EV3" t="s">
+      <c r="EY3" t="s">
         <v>499</v>
       </c>
-      <c r="EW3" t="s">
+      <c r="EZ3" t="s">
         <v>500</v>
       </c>
-      <c r="EX3" t="s">
+      <c r="FA3" t="s">
         <v>501</v>
       </c>
-      <c r="EY3" t="s">
+      <c r="FB3" t="s">
         <v>502</v>
       </c>
-      <c r="EZ3" t="s">
+      <c r="FC3" t="s">
         <v>503</v>
       </c>
-      <c r="FA3" t="s">
+      <c r="FD3" t="s">
         <v>504</v>
       </c>
-      <c r="FB3" t="s">
+      <c r="FE3" t="s">
         <v>505</v>
       </c>
-      <c r="FC3" t="s">
+      <c r="FF3" t="s">
         <v>506</v>
       </c>
-      <c r="FD3" t="s">
+      <c r="FG3" t="s">
         <v>507</v>
       </c>
-      <c r="FE3" t="s">
+      <c r="FH3" t="s">
         <v>508</v>
       </c>
-      <c r="FF3" t="s">
+      <c r="FI3" t="s">
         <v>509</v>
       </c>
-      <c r="FG3" t="s">
+      <c r="FJ3" t="s">
         <v>510</v>
       </c>
-      <c r="FH3" t="s">
+      <c r="FK3" t="s">
         <v>511</v>
       </c>
-      <c r="FI3" t="s">
+      <c r="FL3" t="s">
         <v>512</v>
       </c>
-      <c r="FJ3" t="s">
+      <c r="FM3" t="s">
         <v>513</v>
       </c>
-      <c r="FK3" t="s">
+      <c r="FN3" t="s">
         <v>514</v>
       </c>
-      <c r="FL3" t="s">
+      <c r="FO3" t="s">
         <v>515</v>
       </c>
-      <c r="FM3" t="s">
+      <c r="FP3" t="s">
         <v>516</v>
       </c>
-      <c r="FN3" t="s">
+      <c r="FQ3" t="s">
         <v>517</v>
       </c>
-      <c r="FO3" t="s">
+      <c r="FR3" t="s">
         <v>518</v>
       </c>
-      <c r="FP3" t="s">
+      <c r="FS3" t="s">
         <v>519</v>
       </c>
-      <c r="FQ3" t="s">
+      <c r="FT3" t="s">
         <v>520</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>521</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>522</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
